--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>555650.7954634198</v>
+        <v>596513.81538734</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12426458.88989895</v>
+        <v>12500319.53076206</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6381813.16149734</v>
+        <v>7426899.604845122</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9580421.07714317</v>
+        <v>9066172.114820998</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>232.2791855053266</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.69995123284156</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>138.2613113589521</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>161.8294550022489</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V4" t="n">
-        <v>204.2688325015156</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>88.71658786352533</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>211.2228407230371</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>239.8079481415046</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>186.5632038837298</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>121.9898132645956</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.91762628052238</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>115.2309268356086</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>79.51149230610424</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.45124363843968</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>31.9138039161961</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.8917226135564</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>9.196523668663353</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>306.6027118331398</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>18.85986618588231</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>108.8399820302377</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>111.7244765928107</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>357.9103591257411</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>285.0189589184523</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>11.16818915334145</v>
+        <v>97.28002421814141</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>163.0414221154294</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>93.91244618182625</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2019,7 +2019,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>51.40234901104146</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.1096626559152</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>308.9207363956754</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>231.8420908016152</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>142.5647726587068</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>51.37677186479837</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>261.3580717659639</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>5.829022425352115</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>131.573039120795</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>74.55681854024965</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>365.4663616365503</v>
       </c>
     </row>
     <row r="27">
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>114.4746605491558</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>69.16121449564825</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>313.4495631349284</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>210.353380554337</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>6.380068175847859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>72.89138480951671</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>230.2267521569513</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>219.1834685212287</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>58.40943379163144</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>189.2133623690054</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>240.2648719523401</v>
       </c>
     </row>
     <row r="36">
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>15.07437110675895</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>88.0162480906818</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>210.6046526660743</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>37.59617708813238</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951288</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>189.2395865667822</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>200.0148025157497</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>35.19569619650095</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>270.3808622796245</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>265.3349637476814</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>328.3712303094061</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>32.04899262726524</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553.8524235344764</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="C2" t="n">
-        <v>553.8524235344764</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344764</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>287.4747669672985</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V2" t="n">
-        <v>820.2300801016545</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W2" t="n">
-        <v>820.2300801016545</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X2" t="n">
-        <v>820.2300801016545</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.8524235344764</v>
+        <v>371.2627786323101</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>388.8500079298782</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>214.3969786487511</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749988</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098645</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="U3" t="n">
-        <v>906.2192216098645</v>
+        <v>533.499507267843</v>
       </c>
       <c r="V3" t="n">
-        <v>671.0671133781218</v>
+        <v>344.0797222513582</v>
       </c>
       <c r="W3" t="n">
-        <v>416.8297566499202</v>
+        <v>154.6599372348734</v>
       </c>
       <c r="X3" t="n">
-        <v>416.8297566499202</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y3" t="n">
-        <v>416.8297566499202</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>43.17590452428104</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>216.0634826394161</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>401.7138139340728</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>587.3641452287296</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512191</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092334</v>
+        <v>583.26140202276</v>
       </c>
       <c r="U4" t="n">
-        <v>493.8069210092334</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="V4" t="n">
-        <v>287.4747669672985</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="W4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1038.951999594605</v>
+        <v>503.6451371472893</v>
       </c>
       <c r="C5" t="n">
-        <v>949.3392845809428</v>
+        <v>503.6451371472893</v>
       </c>
       <c r="D5" t="n">
-        <v>949.3392845809428</v>
+        <v>503.6451371472893</v>
       </c>
       <c r="E5" t="n">
-        <v>949.3392845809428</v>
+        <v>503.6451371472893</v>
       </c>
       <c r="F5" t="n">
-        <v>538.3533797913353</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="G5" t="n">
-        <v>122.3223344947425</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809305</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>40.41888584470337</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>122.9820404192955</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>262.3106962605485</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>643.3443219779379</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>813.5133472948972</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172446</v>
+        <v>924.2476725444234</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904652</v>
+        <v>959.2317925660183</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904652</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904652</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904652</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="U5" t="n">
-        <v>2168.459826904652</v>
+        <v>745.8753877952738</v>
       </c>
       <c r="V5" t="n">
-        <v>2168.459826904652</v>
+        <v>745.8753877952738</v>
       </c>
       <c r="W5" t="n">
-        <v>1815.691171634538</v>
+        <v>745.8753877952738</v>
       </c>
       <c r="X5" t="n">
-        <v>1815.691171634538</v>
+        <v>745.8753877952738</v>
       </c>
       <c r="Y5" t="n">
-        <v>1425.551839658727</v>
+        <v>503.6451371472893</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>539.7292948984995</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="C6" t="n">
-        <v>365.2762656173724</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="D6" t="n">
-        <v>216.3418559561212</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E6" t="n">
-        <v>216.3418559561212</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F6" t="n">
-        <v>69.80729798300611</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G6" t="n">
-        <v>69.80729798300611</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H6" t="n">
-        <v>69.80729798300611</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809305</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562316</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504519</v>
+        <v>152.9092351450197</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104395</v>
+        <v>290.1388331607135</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789488</v>
+        <v>469.6361695153181</v>
       </c>
       <c r="N6" t="n">
-        <v>1166.88538687358</v>
+        <v>668.2929111679825</v>
       </c>
       <c r="O6" t="n">
-        <v>1652.500897840821</v>
+        <v>827.8052238367429</v>
       </c>
       <c r="P6" t="n">
-        <v>1867.009313401722</v>
+        <v>936.4948513640416</v>
       </c>
       <c r="Q6" t="n">
-        <v>2168.459826904652</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R6" t="n">
-        <v>2168.459826904652</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S6" t="n">
-        <v>2029.49516640637</v>
+        <v>809.7650034286531</v>
       </c>
       <c r="T6" t="n">
-        <v>1841.047485715734</v>
+        <v>612.7757075887407</v>
       </c>
       <c r="U6" t="n">
-        <v>1612.945895848998</v>
+        <v>384.6369200999065</v>
       </c>
       <c r="V6" t="n">
-        <v>1377.793787617256</v>
+        <v>384.6369200999065</v>
       </c>
       <c r="W6" t="n">
-        <v>1123.556430889054</v>
+        <v>142.406669451922</v>
       </c>
       <c r="X6" t="n">
-        <v>915.7049306835213</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="Y6" t="n">
-        <v>707.9446319185674</v>
+        <v>19.18463585132037</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>193.4858359504288</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="C7" t="n">
-        <v>193.4858359504288</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36919653809305</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809305</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809305</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809305</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809305</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809305</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="J7" t="n">
-        <v>58.6963092017423</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K7" t="n">
-        <v>213.7203003246705</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L7" t="n">
-        <v>467.6240706728883</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M7" t="n">
-        <v>745.7191196640786</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N7" t="n">
-        <v>1022.636306385109</v>
+        <v>716.1585259030903</v>
       </c>
       <c r="O7" t="n">
-        <v>1262.397853152952</v>
+        <v>890.2534212916892</v>
       </c>
       <c r="P7" t="n">
-        <v>1444.034594271086</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="Q7" t="n">
-        <v>1486.355378693647</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R7" t="n">
-        <v>1486.355378693647</v>
+        <v>828.753831285421</v>
       </c>
       <c r="S7" t="n">
-        <v>1287.175893077873</v>
+        <v>621.3135465378264</v>
       </c>
       <c r="T7" t="n">
-        <v>1063.572035770497</v>
+        <v>395.6843498501913</v>
       </c>
       <c r="U7" t="n">
-        <v>774.4457147445203</v>
+        <v>395.6843498501913</v>
       </c>
       <c r="V7" t="n">
-        <v>774.4457147445203</v>
+        <v>395.6843498501913</v>
       </c>
       <c r="W7" t="n">
-        <v>485.0285447075597</v>
+        <v>153.4540992022069</v>
       </c>
       <c r="X7" t="n">
-        <v>257.0389938095423</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.0389938095423</v>
+        <v>37.05922361068303</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1329.838061543121</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.838061543121</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="D8" t="n">
-        <v>1329.838061543121</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="E8" t="n">
-        <v>944.049808944877</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="F8" t="n">
-        <v>533.0639041552695</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G8" t="n">
-        <v>117.3591538795583</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H8" t="n">
-        <v>117.3591538795583</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>634.167062227511</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.577233583055</v>
+        <v>367.789405660333</v>
       </c>
       <c r="X8" t="n">
-        <v>2106.577233583055</v>
+        <v>367.789405660333</v>
       </c>
       <c r="Y8" t="n">
-        <v>1716.437901607243</v>
+        <v>367.789405660333</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>53.33327597203575</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>53.33327597203575</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605189</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919907</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>227.7863052531628</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2467865680031</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1045.56610215889</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1045.56610215889</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>820.0970659169042</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329318</v>
+        <v>820.0970659169042</v>
       </c>
       <c r="V10" t="n">
-        <v>927.7205539329318</v>
+        <v>820.0970659169042</v>
       </c>
       <c r="W10" t="n">
-        <v>638.3033838959711</v>
+        <v>820.0970659169042</v>
       </c>
       <c r="X10" t="n">
-        <v>410.3138329979538</v>
+        <v>592.1075150188868</v>
       </c>
       <c r="Y10" t="n">
-        <v>189.5212538544237</v>
+        <v>371.3149358753568</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1032.06112435253</v>
+        <v>1613.36747832379</v>
       </c>
       <c r="C11" t="n">
-        <v>722.3614154301667</v>
+        <v>1244.404961383379</v>
       </c>
       <c r="D11" t="n">
-        <v>364.0957168234162</v>
+        <v>886.1392627766284</v>
       </c>
       <c r="E11" t="n">
-        <v>364.0957168234162</v>
+        <v>500.3510101783841</v>
       </c>
       <c r="F11" t="n">
-        <v>364.0957168234162</v>
+        <v>481.3006402936545</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>254.0744928369593</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>586.364312131902</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1035.500977900981</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2111.55476080156</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2612.501248106873</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3005.546484356407</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3252.53434141264</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>3057.264619262677</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>2726.201731919106</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2373.433076648992</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392464</v>
+        <v>1999.967318387912</v>
       </c>
       <c r="Y11" t="n">
-        <v>1418.660964416652</v>
+        <v>1999.967318387912</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3156003142899</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8625710331629</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>448.690706366456</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>302.156148393341</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>165.7864839520667</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>75.22119252365748</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951944</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>159.2853526912738</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>396.5106591183467</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>761.811900185831</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2398.00944543187</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>645.3078929297411</v>
+        <v>528.7273025218271</v>
       </c>
       <c r="C13" t="n">
-        <v>476.3717100018342</v>
+        <v>528.7273025218271</v>
       </c>
       <c r="D13" t="n">
-        <v>326.2550705894985</v>
+        <v>528.7273025218271</v>
       </c>
       <c r="E13" t="n">
-        <v>326.2550705894985</v>
+        <v>380.814208939434</v>
       </c>
       <c r="F13" t="n">
-        <v>179.3651230915881</v>
+        <v>233.9242614415236</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>314.317742817943</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886842</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>973.3871879897968</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1699.861054503352</v>
       </c>
       <c r="U13" t="n">
-        <v>1638.191681214136</v>
+        <v>1410.757887450811</v>
       </c>
       <c r="V13" t="n">
-        <v>1383.507193008249</v>
+        <v>1156.073399244924</v>
       </c>
       <c r="W13" t="n">
-        <v>1094.090022971289</v>
+        <v>866.6562292079634</v>
       </c>
       <c r="X13" t="n">
-        <v>866.1004720732712</v>
+        <v>638.6666783099461</v>
       </c>
       <c r="Y13" t="n">
-        <v>645.3078929297411</v>
+        <v>638.6666783099461</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1127.748203495404</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C14" t="n">
-        <v>1127.748203495404</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D14" t="n">
-        <v>769.4825048886539</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E14" t="n">
-        <v>481.5845665871869</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G14" t="n">
         <v>66.51211643218343</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>2630.721789066532</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W14" t="n">
-        <v>2277.953133796418</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X14" t="n">
-        <v>1904.487375535338</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y14" t="n">
-        <v>1514.348043559526</v>
+        <v>1952.040104645724</v>
       </c>
     </row>
     <row r="15">
@@ -5348,7 +5348,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064554</v>
@@ -5357,22 +5357,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
         <v>66.51211643218343</v>
@@ -5472,16 +5472,16 @@
         <v>1638.191681214136</v>
       </c>
       <c r="V16" t="n">
-        <v>1383.507193008249</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W16" t="n">
-        <v>1094.090022971289</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X16" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y16" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1032.061124352532</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C17" t="n">
-        <v>1032.061124352532</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D17" t="n">
-        <v>867.3728191854311</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E17" t="n">
-        <v>481.5845665871869</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653545</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.800296392465</v>
+        <v>1977.114329431319</v>
       </c>
       <c r="Y17" t="n">
-        <v>1418.660964416653</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="18">
@@ -5585,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5709,16 +5709,16 @@
         <v>1638.191681214136</v>
       </c>
       <c r="V19" t="n">
-        <v>1638.191681214136</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W19" t="n">
-        <v>1348.774511177176</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X19" t="n">
-        <v>1348.774511177176</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y19" t="n">
-        <v>1175.936468090393</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1619.798686923957</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C20" t="n">
-        <v>1250.836169983545</v>
+        <v>806.3384156653785</v>
       </c>
       <c r="D20" t="n">
-        <v>892.5704713767946</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066532</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W20" t="n">
-        <v>2630.721789066532</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X20" t="n">
-        <v>2396.53785896389</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y20" t="n">
-        <v>2006.398526988078</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5834,19 +5834,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>752.7622949738579</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C22" t="n">
-        <v>608.7574741064773</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D22" t="n">
-        <v>458.6408346941415</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E22" t="n">
-        <v>310.7277411117484</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5943,19 +5943,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V22" t="n">
-        <v>1672.610059882606</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W22" t="n">
-        <v>1383.192889845645</v>
+        <v>1331.611463851887</v>
       </c>
       <c r="X22" t="n">
-        <v>1155.203338947628</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y22" t="n">
-        <v>934.4107598040977</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1934.181533884357</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C23" t="n">
-        <v>1565.219016943946</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="D23" t="n">
-        <v>1206.953318337195</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="E23" t="n">
-        <v>821.1650657389509</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
         <v>821.1650657389509</v>
@@ -6016,25 +6016,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V23" t="n">
-        <v>2961.784676410101</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2961.784676410101</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X23" t="n">
-        <v>2588.318918149022</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y23" t="n">
-        <v>2198.17958617321</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>644.3338566427974</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
         <v>66.5121164321834</v>
@@ -6177,22 +6177,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V25" t="n">
-        <v>1161.740577577775</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W25" t="n">
-        <v>872.3234075408147</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X25" t="n">
-        <v>644.3338566427974</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y25" t="n">
-        <v>644.3338566427974</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.7704558796265</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C26" t="n">
-        <v>552.8079389392149</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D26" t="n">
-        <v>477.498021221791</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F26" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.97538618064</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.50962791956</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943748</v>
+        <v>1888.09808975843</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218343</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6411,25 +6411,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T28" t="n">
-        <v>1530.147236421175</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U28" t="n">
-        <v>1241.044369546818</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V28" t="n">
-        <v>986.3598813409312</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W28" t="n">
-        <v>696.9427113039706</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X28" t="n">
-        <v>468.9531604059532</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y28" t="n">
-        <v>248.1605812624231</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1832.276849100055</v>
+        <v>1548.76669086687</v>
       </c>
       <c r="C29" t="n">
-        <v>1463.314332159643</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D29" t="n">
-        <v>1105.048633552892</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E29" t="n">
-        <v>1105.048633552892</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>694.0627287632849</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>278.9902786082814</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6493,22 +6493,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V29" t="n">
-        <v>2961.784676410102</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W29" t="n">
-        <v>2609.016021139988</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X29" t="n">
-        <v>2609.016021139988</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2218.876689164176</v>
+        <v>1935.366530930992</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>241.8928126690276</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C31" t="n">
-        <v>72.95662974112065</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>72.95662974112065</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6651,22 +6651,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1416.425065783662</v>
+        <v>1853.666886664739</v>
       </c>
       <c r="V31" t="n">
-        <v>1161.740577577775</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="W31" t="n">
-        <v>872.3234075408147</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X31" t="n">
-        <v>644.3338566427974</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y31" t="n">
-        <v>423.5412774992673</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1921.870414581993</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C32" t="n">
-        <v>1552.907897641581</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>3072.075344883006</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>3072.075344883006</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>2698.609586621927</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>2308.470254646115</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>423.5412774992673</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C34" t="n">
-        <v>423.5412774992673</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D34" t="n">
-        <v>273.4246380869315</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>125.5115445045384</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>125.5115445045384</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U34" t="n">
-        <v>1416.425065783662</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V34" t="n">
-        <v>1161.740577577775</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W34" t="n">
-        <v>872.3234075408147</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X34" t="n">
-        <v>644.3338566427974</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y34" t="n">
-        <v>423.5412774992673</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1381.278680221568</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C35" t="n">
-        <v>1381.278680221568</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D35" t="n">
-        <v>1381.278680221568</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E35" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792696</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2531.483610522581</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X35" t="n">
-        <v>2158.017852261502</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y35" t="n">
-        <v>1767.87852028569</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218343</v>
+        <v>81.7387539137581</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1751.913851851648</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>468.9531604059532</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>248.1605812624231</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2065.110222835252</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1533.087595125544</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>1147.2993425273</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>736.3134377376923</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>321.2409875826888</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W38" t="n">
-        <v>3215.315153136266</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X38" t="n">
-        <v>2841.849394875186</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y38" t="n">
-        <v>2451.710062899374</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>680.3679798527295</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C40" t="n">
-        <v>511.4317969248226</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>1600.215744761477</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>1310.798574724517</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X40" t="n">
-        <v>1082.809023826499</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y40" t="n">
-        <v>862.0164446829692</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1190.127582679363</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C41" t="n">
-        <v>821.1650657389509</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D41" t="n">
-        <v>821.1650657389509</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>821.1650657389509</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>3024.164055594061</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V41" t="n">
-        <v>2693.10116825049</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W41" t="n">
-        <v>2340.332512980376</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X41" t="n">
-        <v>1966.866754719296</v>
+        <v>2075.917979740103</v>
       </c>
       <c r="Y41" t="n">
-        <v>1576.727422743484</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="42">
@@ -7466,70 +7466,70 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218342</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218342</v>
+        <v>102.0633247114773</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218342</v>
+        <v>102.0633247114773</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,10 +7590,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
         <v>1735.608663915319</v>
@@ -7602,19 +7602,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610488</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046014</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>468.9531604059532</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1619.798686923957</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C44" t="n">
-        <v>1250.836169983545</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D44" t="n">
-        <v>892.5704713767946</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410101</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796416</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X44" t="n">
-        <v>2277.953133796416</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y44" t="n">
-        <v>1887.813801820605</v>
+        <v>1477.112184968822</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.5121164321834</v>
+        <v>561.3907139632884</v>
       </c>
       <c r="C46" t="n">
-        <v>66.5121164321834</v>
+        <v>561.3907139632884</v>
       </c>
       <c r="D46" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1751.913851851648</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1530.147236421175</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U46" t="n">
-        <v>1241.044369546818</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V46" t="n">
-        <v>986.3598813409312</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W46" t="n">
-        <v>696.9427113039706</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="X46" t="n">
-        <v>468.9531604059532</v>
+        <v>963.8317579370582</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>743.0391787935281</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>42.56275186471078</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>66.78462588923489</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>196.2184492047224</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>77.96696197637812</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839809</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111053</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>217.5613044873861</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>95.47307296480832</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.8332324170258</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>67.51167384452538</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>61.89021848785123</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>98.73949432713033</v>
       </c>
       <c r="V4" t="n">
-        <v>47.86881082231244</v>
+        <v>64.61205615750805</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>98.99741117027105</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>276.5563039074822</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>167.0680976002068</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>173.1089558044322</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>39.93194549926352</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>146.429990514549</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6.200014427033977</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>11.88703501941501</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>83.78317193888184</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116.9143539014149</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22956,13 +22956,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22998,16 +22998,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>46.71505019508641</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>110.4787285534286</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>327.3645534356072</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2586690340307882</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>125.7312765392048</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.94025756838093</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>118.3080792150006</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>58.67017993786772</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>388.0161795558291</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>70.99199815169958</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>54.30133166621756</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>24.82348253773944</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>96.91141115380947</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>214.5414662356957</v>
+        <v>128.4296311708957</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>191.6416195052535</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>275.8186544966428</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>200.7352943127866</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.47499069617959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>45.76230522500754</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>137.8890098768538</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>24.682048439921</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>235.1462264717926</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>121.3757698975166</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>376.1013476469097</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -24265,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>35.67378197783279</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24417,22 +24417,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>94.0442761581327</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>280.1262230804333</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>20.77157701950324</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>105.0742887270134</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>217.3617838409427</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>51.82332863607911</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>84.25438383298351</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>140.0538944707213</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24891,10 +24891,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>213.3204533960962</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>124.4562894637316</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>187.6925772204828</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>107.6163744673968</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>192.7170077032564</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>145.9730667037134</v>
       </c>
     </row>
     <row r="36">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>131.3595915398102</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>277.2566436803257</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>84.00311172124611</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,16 +25599,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>16.142136056966</v>
       </c>
     </row>
     <row r="41">
@@ -25636,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>61.75558539211974</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>169.7162981627193</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>111.2382664500682</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>16.14213605696648</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>117.3988779157992</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>57.86670834664744</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>116.5664803909471</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696639</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>531745.8774266867</v>
+        <v>469204.3889465104</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>726949.4244662803</v>
+        <v>512616.4267801375</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>795881.4350570394</v>
+        <v>531745.8774266866</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877471.8739210082</v>
+        <v>875885.9482981043</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>877471.8739210082</v>
+        <v>877471.8739210083</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>877471.873921008</v>
+        <v>877471.8739210082</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>877471.8739210082</v>
+        <v>877471.8739210081</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>877471.8739210082</v>
+        <v>877471.8739210081</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>877471.8739210081</v>
+        <v>877471.8739210078</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>877471.873921008</v>
+        <v>877471.8739210082</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193768.2521372568</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
-        <v>265569.8802231801</v>
+        <v>186902.5922223889</v>
       </c>
       <c r="D2" t="n">
-        <v>290673.0489695932</v>
+        <v>193768.2521372567</v>
       </c>
       <c r="E2" t="n">
-        <v>323947.2440223743</v>
+        <v>323301.6211378982</v>
       </c>
       <c r="F2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="G2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="H2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="I2" t="n">
         <v>323947.2440223745</v>
@@ -26340,22 +26340,22 @@
         <v>323947.2440223744</v>
       </c>
       <c r="K2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="L2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="M2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="N2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="O2" t="n">
         <v>323947.2440223745</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223745</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>308174.1417414033</v>
+        <v>57873.59701082211</v>
       </c>
       <c r="D3" t="n">
-        <v>99404.1828459611</v>
+        <v>25049.96918112296</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>548162.469095028</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3449.010472953293</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911419</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>71651.52831447146</v>
+        <v>13455.80667946141</v>
       </c>
       <c r="L3" t="n">
-        <v>24921.8392282495</v>
+        <v>6050.376200379565</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>140547.3526709352</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>906.8265503280803</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>9240.880119453526</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11138.47116666974</v>
+      </c>
+      <c r="D4" t="n">
         <v>11859.77526465972</v>
       </c>
-      <c r="C4" t="n">
-        <v>14549.24850679122</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16175.59256035157</v>
-      </c>
       <c r="E4" t="n">
-        <v>8550.515172066862</v>
+        <v>8694.99465449842</v>
       </c>
       <c r="F4" t="n">
         <v>8550.515172066862</v>
@@ -26456,7 +26456,7 @@
         <v>8550.515172066862</v>
       </c>
       <c r="O4" t="n">
-        <v>8550.515172066873</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="P4" t="n">
         <v>8550.515172066862</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587224</v>
+        <v>61145.70223437329</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74015.36825377261</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26493,7 +26493,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26502,16 +26502,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="N5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="O5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="P5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-571555.0221096138</v>
+        <v>-487314.4437755877</v>
       </c>
       <c r="C6" t="n">
-        <v>-148901.2740104843</v>
+        <v>55675.91523966509</v>
       </c>
       <c r="D6" t="n">
-        <v>76928.03840154417</v>
+        <v>92777.93296853271</v>
       </c>
       <c r="E6" t="n">
-        <v>55541.21917366255</v>
+        <v>-307922.2278103884</v>
       </c>
       <c r="F6" t="n">
-        <v>237614.1989908534</v>
+        <v>237293.7588861549</v>
       </c>
       <c r="G6" t="n">
-        <v>237614.1989908532</v>
+        <v>240742.7693591081</v>
       </c>
       <c r="H6" t="n">
-        <v>237614.1989908533</v>
+        <v>240742.7693591082</v>
       </c>
       <c r="I6" t="n">
-        <v>237614.1989908533</v>
+        <v>240742.7693591082</v>
       </c>
       <c r="J6" t="n">
-        <v>168615.044571739</v>
+        <v>191677.8246305635</v>
       </c>
       <c r="K6" t="n">
-        <v>165962.6706763818</v>
+        <v>227286.9626796469</v>
       </c>
       <c r="L6" t="n">
-        <v>212692.3597626037</v>
+        <v>234692.3931587285</v>
       </c>
       <c r="M6" t="n">
-        <v>190061.9331974382</v>
+        <v>100195.4166881732</v>
       </c>
       <c r="N6" t="n">
-        <v>237614.1989908532</v>
+        <v>239835.9428087803</v>
       </c>
       <c r="O6" t="n">
-        <v>237614.1989908535</v>
+        <v>240742.7693591082</v>
       </c>
       <c r="P6" t="n">
-        <v>237614.1989908534</v>
+        <v>240742.7693591082</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261631</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
@@ -26813,25 +26813,25 @@
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>239.6556507682058</v>
+        <v>45.00615942516004</v>
       </c>
       <c r="D3" t="n">
-        <v>80.35422757985521</v>
+        <v>20.57891343141364</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>472.7003933928085</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.0212934310116</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>278.4010767246569</v>
+        <v>52.28236097518464</v>
       </c>
       <c r="D4" t="n">
-        <v>98.46987537387565</v>
+        <v>23.90593186000154</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>563.9851393674867</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.702436033300046</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015066</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246568</v>
+        <v>52.28236097518499</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387542</v>
+        <v>23.9059318600012</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>563.9851393674867</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033300046</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246569</v>
+        <v>52.28236097518464</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387565</v>
+        <v>23.90593186000154</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>563.9851393674867</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033300046</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>28.45844197068227</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169987</v>
+        <v>135.0753528219186</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O6" t="n">
-        <v>490.5207181487284</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q6" t="n">
-        <v>304.4954681847781</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>156.5898900231598</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L7" t="n">
-        <v>256.4684548971897</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M7" t="n">
-        <v>280.9040898900911</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N7" t="n">
-        <v>279.7143300212425</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O7" t="n">
-        <v>242.1833805735793</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P7" t="n">
-        <v>183.4714556748827</v>
+        <v>69.67512249932244</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.74826709349593</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419598</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>453.6733997667467</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>536.7884014978926</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329959</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>506.0065528336489</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
